--- a/Algorithm/Sort/内部排序小结.xlsx
+++ b/Algorithm/Sort/内部排序小结.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>排序方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -365,12 +365,36 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -380,28 +404,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,7 +717,7 @@
   <dimension ref="B2:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -734,84 +740,80 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="5" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="5" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="8" t="s">
+      <c r="O2" s="15"/>
+      <c r="P2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -820,20 +822,20 @@
       <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="16" t="s">
         <v>29</v>
       </c>
+      <c r="G4" s="17"/>
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="1" t="s">
+      <c r="J4" s="16" t="s">
         <v>29</v>
       </c>
+      <c r="K4" s="17"/>
       <c r="L4" s="1" t="s">
         <v>33</v>
       </c>
@@ -852,46 +854,60 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="16" t="s">
         <v>36</v>
       </c>
+      <c r="G6" s="17"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
+      <c r="J6" s="16" t="s">
         <v>35</v>
       </c>
+      <c r="K6" s="17"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -900,20 +916,20 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -922,18 +938,18 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -942,20 +958,20 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -964,18 +980,18 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -984,20 +1000,20 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1006,18 +1022,18 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1026,18 +1042,38 @@
       <c r="Q12" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="31">
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:P3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algorithm/Sort/内部排序小结.xlsx
+++ b/Algorithm/Sort/内部排序小结.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>排序方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,15 +160,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>适用性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>待排序列基本有序或数量不大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n^1.3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +217,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +227,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -374,6 +384,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -392,22 +420,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,7 +736,7 @@
   <dimension ref="B2:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="F7" sqref="F7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -733,67 +752,68 @@
     <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="13" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="13" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="13" t="s">
+      <c r="M2" s="11"/>
+      <c r="N2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="6" t="s">
+      <c r="O2" s="11"/>
+      <c r="P2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>37</v>
+      <c r="Q2" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="3" t="s">
         <v>25</v>
       </c>
@@ -806,11 +826,11 @@
       <c r="O3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -822,20 +842,20 @@
       <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="17"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="1" t="s">
         <v>33</v>
       </c>
@@ -850,30 +870,30 @@
         <v>19</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="17"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="1" t="s">
         <v>33</v>
       </c>
@@ -888,35 +908,39 @@
         <v>19</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -924,12 +948,12 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -938,18 +962,18 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -958,7 +982,7 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -966,12 +990,12 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -980,18 +1004,18 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1008,12 +1032,12 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1022,18 +1046,18 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1043,24 +1067,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="J3:K3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:B6"/>
@@ -1074,6 +1080,24 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algorithm/Sort/内部排序小结.xlsx
+++ b/Algorithm/Sort/内部排序小结.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>排序方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,10 @@
   </si>
   <si>
     <t>O(n^1.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,49 +388,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -736,7 +740,7 @@
   <dimension ref="B2:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G7"/>
+      <selection activeCell="F11" sqref="F11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -760,60 +764,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="9" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="9" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="9" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="12" t="s">
+      <c r="O2" s="19"/>
+      <c r="P2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="11"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="3" t="s">
         <v>25</v>
       </c>
@@ -826,11 +830,11 @@
       <c r="O3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -842,20 +846,20 @@
       <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="15"/>
       <c r="L4" s="1" t="s">
         <v>33</v>
       </c>
@@ -874,26 +878,26 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="1" t="s">
         <v>33</v>
       </c>
@@ -912,18 +916,18 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="1" t="s">
         <v>33</v>
       </c>
@@ -937,43 +941,63 @@
       <c r="P6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="20"/>
+      <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -982,7 +1006,7 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -990,12 +1014,12 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1004,18 +1028,18 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1032,12 +1056,12 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1046,18 +1070,18 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1067,6 +1091,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:B6"/>
@@ -1083,21 +1122,6 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algorithm/Sort/内部排序小结.xlsx
+++ b/Algorithm/Sort/内部排序小结.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>排序方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(nlogn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少量数据求Top K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均性能最好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +233,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +252,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -371,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -389,6 +407,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -740,7 +761,7 @@
   <dimension ref="B2:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -764,60 +785,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="18" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="18" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="18" t="s">
+      <c r="M2" s="20"/>
+      <c r="N2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="7" t="s">
+      <c r="O2" s="20"/>
+      <c r="P2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="19"/>
+      <c r="K3" s="20"/>
       <c r="L3" s="3" t="s">
         <v>25</v>
       </c>
@@ -830,11 +851,11 @@
       <c r="O3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -846,20 +867,20 @@
       <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="1" t="s">
         <v>33</v>
       </c>
@@ -878,26 +899,26 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="1" t="s">
         <v>33</v>
       </c>
@@ -916,18 +937,18 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="1" t="s">
         <v>33</v>
       </c>
@@ -944,7 +965,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -956,20 +977,20 @@
       <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="16"/>
       <c r="L7" s="1" t="s">
         <v>33</v>
       </c>
@@ -983,30 +1004,46 @@
       <c r="P7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="6"/>
+      <c r="Q7" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1014,12 +1051,12 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1028,18 +1065,18 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1056,12 +1093,12 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1070,18 +1107,18 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>

--- a/Algorithm/Sort/内部排序小结.xlsx
+++ b/Algorithm/Sort/内部排序小结.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>排序方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最坏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>平均</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,6 +186,13 @@
   <si>
     <t>平均性能最好</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Σ(n-i), i∈[1,n-1]</t>
   </si>
 </sst>
 </file>
@@ -412,6 +415,30 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,30 +455,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,7 +764,7 @@
   <dimension ref="B2:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -785,302 +788,320 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="19" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="19" t="s">
+      <c r="M2" s="11"/>
+      <c r="N2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="8" t="s">
+      <c r="O2" s="11"/>
+      <c r="P2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>36</v>
+      <c r="Q2" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="20"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="M4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="O4" s="15"/>
       <c r="P4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="16"/>
+      <c r="F5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="15"/>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="M5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="O5" s="15"/>
       <c r="P5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
       <c r="L6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="15"/>
       <c r="P6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="M7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="O7" s="15"/>
       <c r="P7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="16"/>
+      <c r="F8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="15"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="O8" s="15"/>
       <c r="P8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="D9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="15"/>
+      <c r="P9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
@@ -1093,56 +1114,51 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
+  <mergeCells count="42">
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:B6"/>
@@ -1159,6 +1175,22 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algorithm/Sort/内部排序小结.xlsx
+++ b/Algorithm/Sort/内部排序小结.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>排序方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,10 @@
   </si>
   <si>
     <t>Σ(n-i), i∈[1,n-1]</t>
+  </si>
+  <si>
+    <t>大量数据求Top K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -415,46 +419,46 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -764,7 +768,7 @@
   <dimension ref="B2:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -788,47 +792,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="11"/>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="11"/>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="11"/>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="11"/>
@@ -838,7 +842,7 @@
       <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="11"/>
@@ -848,15 +852,15 @@
       <c r="M3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="10" t="s">
         <v>26</v>
       </c>
       <c r="O3" s="11"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -868,30 +872,30 @@
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="15"/>
+      <c r="O4" s="9"/>
       <c r="P4" s="1" t="s">
         <v>19</v>
       </c>
@@ -900,36 +904,36 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="9"/>
       <c r="L5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="15"/>
+      <c r="O5" s="9"/>
       <c r="P5" s="1" t="s">
         <v>19</v>
       </c>
@@ -938,35 +942,35 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="15"/>
+      <c r="O6" s="9"/>
       <c r="P6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -978,30 +982,30 @@
       <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="15"/>
+      <c r="O7" s="9"/>
       <c r="P7" s="1" t="s">
         <v>39</v>
       </c>
@@ -1010,32 +1014,32 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="15"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="15"/>
+      <c r="O8" s="9"/>
       <c r="P8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1044,40 +1048,40 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="15"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="15"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1086,24 +1090,38 @@
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -1114,51 +1132,57 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="15"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="15"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:B6"/>
@@ -1175,22 +1199,16 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algorithm/Sort/内部排序小结.xlsx
+++ b/Algorithm/Sort/内部排序小结.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>排序方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,14 @@
   </si>
   <si>
     <t>大量数据求Top K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -419,18 +427,33 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,18 +470,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,7 +779,7 @@
   <dimension ref="B2:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H12" sqref="H12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -792,40 +803,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
       <c r="L2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="11"/>
+      <c r="M2" s="12"/>
       <c r="N2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="12" t="s">
+      <c r="O2" s="12"/>
+      <c r="P2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
@@ -835,7 +846,7 @@
       <c r="F3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
@@ -845,7 +856,7 @@
       <c r="J3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="11"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="3" t="s">
         <v>25</v>
       </c>
@@ -855,12 +866,12 @@
       <c r="N3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -872,30 +883,30 @@
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="9"/>
+      <c r="O4" s="16"/>
       <c r="P4" s="1" t="s">
         <v>19</v>
       </c>
@@ -904,36 +915,36 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="9"/>
+      <c r="O5" s="16"/>
       <c r="P5" s="1" t="s">
         <v>19</v>
       </c>
@@ -942,35 +953,35 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="9"/>
+      <c r="O6" s="16"/>
       <c r="P6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -982,30 +993,30 @@
       <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="16"/>
       <c r="L7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="9"/>
+      <c r="O7" s="16"/>
       <c r="P7" s="1" t="s">
         <v>39</v>
       </c>
@@ -1014,32 +1025,32 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="9"/>
+      <c r="O8" s="16"/>
       <c r="P8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1048,40 +1059,40 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="9"/>
+      <c r="O9" s="16"/>
       <c r="P9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1090,32 +1101,32 @@
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="9"/>
+      <c r="O10" s="16"/>
       <c r="P10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1132,41 +1143,80 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="16"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="43">
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:K2"/>
@@ -1183,32 +1233,6 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algorithm/Sort/内部排序小结.xlsx
+++ b/Algorithm/Sort/内部排序小结.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>排序方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,22 @@
   </si>
   <si>
     <t>稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(d(n+r))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n*r)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d*(n+r)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +227,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +259,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Adobe 楷体 Std R"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Adobe 楷体 Std R"/>
       <family val="1"/>
       <charset val="134"/>
@@ -404,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -430,46 +453,55 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -779,7 +811,7 @@
   <dimension ref="B2:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:I12"/>
+      <selection activeCell="H11" sqref="H11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -795,83 +827,82 @@
     <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="10" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="10" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="10" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="17" t="s">
+      <c r="O2" s="14"/>
+      <c r="P2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="12"/>
+      <c r="K3" s="14"/>
       <c r="L3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -883,30 +914,30 @@
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="16"/>
+      <c r="K4" s="12"/>
       <c r="L4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="16"/>
+      <c r="O4" s="12"/>
       <c r="P4" s="1" t="s">
         <v>19</v>
       </c>
@@ -915,36 +946,36 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="16"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="16"/>
+      <c r="O5" s="12"/>
       <c r="P5" s="1" t="s">
         <v>19</v>
       </c>
@@ -953,35 +984,35 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
       <c r="L6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="16"/>
+      <c r="O6" s="12"/>
       <c r="P6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -993,30 +1024,30 @@
       <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="16"/>
+      <c r="K7" s="12"/>
       <c r="L7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="16"/>
+      <c r="O7" s="12"/>
       <c r="P7" s="1" t="s">
         <v>39</v>
       </c>
@@ -1025,32 +1056,32 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="16"/>
+      <c r="K8" s="12"/>
       <c r="L8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="16"/>
+      <c r="O8" s="12"/>
       <c r="P8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1059,40 +1090,40 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="16"/>
+      <c r="K9" s="12"/>
       <c r="L9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="16"/>
+      <c r="O9" s="12"/>
       <c r="P9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1101,32 +1132,32 @@
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="16"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="16"/>
+      <c r="K10" s="12"/>
       <c r="L10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="16"/>
+      <c r="O10" s="12"/>
       <c r="P10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1141,66 +1172,84 @@
       <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="12"/>
+      <c r="P11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="6"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="16"/>
+      <c r="K12" s="12"/>
       <c r="L12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="16"/>
+      <c r="O12" s="12"/>
       <c r="P12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Q12" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
+  <mergeCells count="44">
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:B6"/>
@@ -1217,22 +1266,17 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algorithm/Sort/内部排序小结.xlsx
+++ b/Algorithm/Sort/内部排序小结.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
   <si>
     <t>排序方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,10 @@
   </si>
   <si>
     <t>d*(n+r)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据均匀分布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,24 +457,39 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,21 +506,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -811,7 +815,7 @@
   <dimension ref="B2:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:I11"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -834,75 +838,75 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="13" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="13" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15" t="s">
+      <c r="O2" s="17"/>
+      <c r="P2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="14"/>
+      <c r="K3" s="17"/>
       <c r="L3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -914,30 +918,30 @@
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="12"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="12"/>
+      <c r="O4" s="13"/>
       <c r="P4" s="1" t="s">
         <v>19</v>
       </c>
@@ -946,36 +950,36 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="21"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="12"/>
+      <c r="K5" s="13"/>
       <c r="L5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="12"/>
+      <c r="O5" s="13"/>
       <c r="P5" s="1" t="s">
         <v>19</v>
       </c>
@@ -984,35 +988,35 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="12"/>
+      <c r="O6" s="13"/>
       <c r="P6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1024,30 +1028,30 @@
       <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="K7" s="13"/>
       <c r="L7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="12"/>
+      <c r="O7" s="13"/>
       <c r="P7" s="1" t="s">
         <v>39</v>
       </c>
@@ -1056,32 +1060,32 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="12"/>
+      <c r="K8" s="13"/>
       <c r="L8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="12"/>
+      <c r="O8" s="13"/>
       <c r="P8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1090,40 +1094,40 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="12"/>
+      <c r="K9" s="13"/>
       <c r="L9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="12"/>
+      <c r="O9" s="13"/>
       <c r="P9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1132,32 +1136,32 @@
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="12"/>
+      <c r="K10" s="13"/>
       <c r="L10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="12"/>
+      <c r="O10" s="13"/>
       <c r="P10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1172,60 +1176,62 @@
       <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="11" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="11" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="12"/>
+      <c r="K11" s="13"/>
       <c r="L11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="O11" s="12"/>
+      <c r="O11" s="13"/>
       <c r="P11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q11" s="6"/>
+      <c r="Q11" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="6"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11" t="s">
+      <c r="G12" s="13"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="13"/>
       <c r="L12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="12"/>
+      <c r="O12" s="13"/>
       <c r="P12" s="1" t="s">
         <v>47</v>
       </c>
@@ -1233,6 +1239,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="B12:C12"/>
@@ -1249,34 +1283,6 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
